--- a/data/trans_dic/P37A$medicootras-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.004407920088329808</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.008495086765043845</v>
+        <v>0.008495086765043843</v>
       </c>
     </row>
     <row r="5">
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001061770513642002</v>
+        <v>0.00111440672274781</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0007934257784603408</v>
+        <v>0.0007944577335976597</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002947515130887273</v>
+        <v>0.003099443534409224</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006061070172887692</v>
+        <v>0.006758852074884107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001247412161867275</v>
+        <v>0.001239505780930496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0004955344067019758</v>
+        <v>0.0004965114005526783</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002160490148391399</v>
+        <v>0.002089371354751003</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004476756584474336</v>
+        <v>0.004251836115428708</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009441650039648102</v>
+        <v>0.009409805676644536</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.003507460678827565</v>
+        <v>0.003955073280531111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005648064684798429</v>
+        <v>0.005736425568788751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.009460954146937619</v>
+        <v>0.01121556025965333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.009743772956791194</v>
+        <v>0.01075227029717545</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.008538829302506859</v>
+        <v>0.008182621990336239</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0123631667778596</v>
+        <v>0.0132779198856223</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02276670442180512</v>
+        <v>0.02405565788533973</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.006622366224946389</v>
+        <v>0.007124945500972983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.004084324399657796</v>
+        <v>0.004323761152883375</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008076691027427448</v>
+        <v>0.007905777490313685</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01596918088758952</v>
+        <v>0.01524602935860574</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0008655990652609643</v>
+        <v>0.0008699091569176647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006026233915792788</v>
+        <v>0.005684330139247454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003976802184845521</v>
+        <v>0.003370893002963506</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001805871812230234</v>
+        <v>0.001770046159943096</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003001997441219434</v>
+        <v>0.002856794173451041</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008514292398701523</v>
+        <v>0.008928046372242589</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.000447737877179097</v>
+        <v>0.0004446541689387606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001892495477709534</v>
+        <v>0.001866951277303461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005476612074627538</v>
+        <v>0.005646906490769355</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008087297687116995</v>
+        <v>0.007949546998591678</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01026676222582903</v>
+        <v>0.009725755207454702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007957730605562817</v>
+        <v>0.007849250623848704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02135600823494607</v>
+        <v>0.0217570580222463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02397346992558694</v>
+        <v>0.01972714165054076</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.004543241720519526</v>
+        <v>0.004538824538462355</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01156289446162436</v>
+        <v>0.01064414836446215</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01340929689888258</v>
+        <v>0.01311740364094375</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02142421566493271</v>
+        <v>0.0208344011735231</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005148729552272384</v>
+        <v>0.00511060271107784</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.007178294812018638</v>
+        <v>0.007173657745100364</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01481725274255607</v>
+        <v>0.0144411158335555</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01768654800841028</v>
+        <v>0.01799084838237548</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.00418216557195198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.005238217817804123</v>
+        <v>0.005238217817804124</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.002316725003852368</v>
@@ -957,7 +957,7 @@
         <v>0.006034525402521243</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.009388341422610847</v>
+        <v>0.009388341422610849</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.002454631620067918</v>
@@ -969,7 +969,7 @@
         <v>0.005077739967019882</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.007314431398580983</v>
+        <v>0.007314431398580984</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0007949167418946535</v>
+        <v>0.0007884829111376843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003698127232788576</v>
+        <v>0.003596876907598243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001185588352202933</v>
+        <v>0.001197575731813979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001965549647781356</v>
+        <v>0.002008399527184355</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005704989665190997</v>
+        <v>0.00562957443626501</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00212242740828575</v>
+        <v>0.001425194178426997</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005652961312591315</v>
+        <v>0.005069926044634437</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0009130497049982978</v>
+        <v>0.0009159691513311367</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00588394030383369</v>
+        <v>0.005459015451384715</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001993691043438536</v>
+        <v>0.002063888803548481</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004481214436717794</v>
+        <v>0.004369346878578326</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.007036844493177981</v>
+        <v>0.007570991881613043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01831624096543544</v>
+        <v>0.01718976351839537</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01313865119688973</v>
+        <v>0.01224421636883789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01162146453226619</v>
+        <v>0.01144291748454616</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.007987321414276771</v>
+        <v>0.008110748436233222</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01848357357679946</v>
+        <v>0.01886115629251652</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01790430753010967</v>
+        <v>0.01565271726925503</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01564883642547821</v>
+        <v>0.01554924011750554</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.005466580571495678</v>
+        <v>0.005767395991258204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01591679741328854</v>
+        <v>0.01527539798748872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01050116847482102</v>
+        <v>0.01091497906078596</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01137763473269964</v>
+        <v>0.01138339947100716</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.008310303153640616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.006270940745232752</v>
+        <v>0.006270940745232751</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.006978257928858033</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01105953037686129</v>
+        <v>0.01105953037686128</v>
       </c>
     </row>
     <row r="14">
@@ -1119,35 +1119,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003793198763290633</v>
+        <v>0.003823870183196893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002238459591172625</v>
+        <v>0.002078576746324269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002787725888935005</v>
+        <v>0.002591508671911756</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.00687577272798627</v>
+        <v>0.008443651044690604</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001795781680183874</v>
+        <v>0.001789944726394775</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009854121360060059</v>
+        <v>0.009913623205594824</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007936957755188094</v>
+        <v>0.007459178316040228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003101365532008559</v>
+        <v>0.002928905034669605</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007295077796847723</v>
+        <v>0.00715823667023438</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009569909133794602</v>
+        <v>0.008832774346253921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0334622312388223</v>
+        <v>0.03071782455484466</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01904972798988203</v>
+        <v>0.01990654133485173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01355861989051331</v>
+        <v>0.01340274585122438</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.03981421942050323</v>
+        <v>0.03883443916341568</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01455919956159261</v>
+        <v>0.01491004465595212</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02584139038441002</v>
+        <v>0.02410187778864871</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.005378400508159764</v>
+        <v>0.00537193509309131</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02733538718870337</v>
+        <v>0.02705943116239416</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01488819233216335</v>
+        <v>0.01402117876660903</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01626979326672975</v>
+        <v>0.01624300247929368</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.006054809925737974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.006276199357385432</v>
+        <v>0.006276199357385433</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.002177760419904638</v>
@@ -1237,7 +1237,7 @@
         <v>0.006247471640891353</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.009807907883265353</v>
+        <v>0.009807907883265351</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001072362666475972</v>
+        <v>0.001000432993688905</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002840258414856927</v>
+        <v>0.002968768401425885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003895097048638912</v>
+        <v>0.003805117678550626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003870627372931581</v>
+        <v>0.004027376656463591</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0008897474937602409</v>
+        <v>0.0009053505339382353</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004834639300613969</v>
+        <v>0.0050926573693739</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004127797595038093</v>
+        <v>0.004176342863864258</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01036869213061807</v>
+        <v>0.01008740219704981</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.001223440447392729</v>
+        <v>0.00123621095401351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004449626511070134</v>
+        <v>0.004601951306784786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004489498599823535</v>
+        <v>0.00446139850596558</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007963169298606134</v>
+        <v>0.007847006802410197</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.004659888874158336</v>
+        <v>0.004765357231498624</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008490127680070163</v>
+        <v>0.008303644444177256</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.009789440714372702</v>
+        <v>0.009495640832195033</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0100073103065993</v>
+        <v>0.01023094898165065</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.004536223932342594</v>
+        <v>0.00424448725205999</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01116115873081414</v>
+        <v>0.01167009813802549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009530014373356691</v>
+        <v>0.009673467188169646</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0171205430316175</v>
+        <v>0.01678706223517344</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.003595711386054763</v>
+        <v>0.003699681290938053</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.008631097191694595</v>
+        <v>0.008656245772146067</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.008381404081383076</v>
+        <v>0.008330490276350732</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01212797168489688</v>
+        <v>0.01238589032636452</v>
       </c>
     </row>
     <row r="19">
@@ -1608,28 +1608,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3713</v>
+        <v>3904</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3780</v>
+        <v>4215</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5158</v>
+        <v>4988</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5024</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5515</v>
+        <v>5497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3662</v>
+        <v>4129</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6371</v>
+        <v>6471</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4719</v>
+        <v>5594</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8987</v>
+        <v>9917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9563</v>
+        <v>9164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15572</v>
+        <v>16724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14197</v>
+        <v>15001</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9976</v>
+        <v>10734</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8838</v>
+        <v>9356</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19284</v>
+        <v>18876</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17923</v>
+        <v>17111</v>
       </c>
     </row>
     <row r="8">
@@ -1779,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5477</v>
+        <v>5166</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3818</v>
+        <v>3237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1976</v>
+        <v>1937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3021</v>
+        <v>2875</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9501</v>
+        <v>9962</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3920</v>
+        <v>3867</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10489</v>
+        <v>10816</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16789</v>
+        <v>16503</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11066</v>
+        <v>10483</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7775</v>
+        <v>7669</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19409</v>
+        <v>19773</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23018</v>
+        <v>18941</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4805</v>
+        <v>4800</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12653</v>
+        <v>11647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13496</v>
+        <v>13202</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23906</v>
+        <v>23248</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10995</v>
+        <v>10913</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14869</v>
+        <v>14859</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28379</v>
+        <v>27659</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36717</v>
+        <v>37349</v>
       </c>
     </row>
     <row r="12">
@@ -1956,40 +1956,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3273</v>
+        <v>3184</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2057</v>
+        <v>2102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4996</v>
+        <v>4930</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1637</v>
+        <v>1099</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5922</v>
+        <v>5311</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1932</v>
+        <v>1938</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10361</v>
+        <v>9613</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3180</v>
+        <v>3292</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9384</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7892</v>
+        <v>8492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16212</v>
+        <v>15215</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10823</v>
+        <v>10086</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12162</v>
+        <v>11975</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7939</v>
+        <v>8062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16188</v>
+        <v>16519</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13805</v>
+        <v>12069</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16394</v>
+        <v>16290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11565</v>
+        <v>12201</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28028</v>
+        <v>26899</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16747</v>
+        <v>17407</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23826</v>
+        <v>23838</v>
       </c>
     </row>
     <row r="16">
@@ -2139,35 +2139,35 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1908</v>
+        <v>1923</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1134</v>
+        <v>1053</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2721</v>
+        <v>2529</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>3113</v>
+        <v>3823</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8971</v>
+        <v>9025</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7586</v>
+        <v>7129</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3090</v>
+        <v>2918</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13761</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="19">
@@ -2178,38 +2178,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4280</v>
+        <v>3950</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16832</v>
+        <v>15452</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9653</v>
+        <v>10087</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13232</v>
+        <v>13080</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>18025</v>
+        <v>17582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7130</v>
+        <v>7301</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23525</v>
+        <v>21941</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>26126</v>
+        <v>25862</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14835</v>
+        <v>13971</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30689</v>
+        <v>30639</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3465</v>
+        <v>3232</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9683</v>
+        <v>10121</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13116</v>
+        <v>12813</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13475</v>
+        <v>14020</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2949</v>
+        <v>3001</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17128</v>
+        <v>18042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14558</v>
+        <v>14729</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>38337</v>
+        <v>37297</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8008</v>
+        <v>8092</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>30933</v>
+        <v>31992</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30951</v>
+        <v>30757</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>57165</v>
+        <v>56331</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15055</v>
+        <v>15396</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28944</v>
+        <v>28308</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>32964</v>
+        <v>31975</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34838</v>
+        <v>35617</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15037</v>
+        <v>14070</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39541</v>
+        <v>41344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33610</v>
+        <v>34116</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>63302</v>
+        <v>62069</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23537</v>
+        <v>24217</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60002</v>
+        <v>60177</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>57782</v>
+        <v>57431</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87063</v>
+        <v>88915</v>
       </c>
     </row>
     <row r="24">
